--- a/现金流量表/688136.xlsx
+++ b/现金流量表/688136.xlsx
@@ -744,53 +744,55 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2018-12-31 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>63437402.69</v>
+        <v>64810282.72</v>
       </c>
       <c r="P2" t="n">
-        <v>322.5343847133</v>
+        <v>828.8369748534</v>
       </c>
       <c r="Q2" t="n">
-        <v>781672823.9400001</v>
+        <v>538153026.38</v>
       </c>
       <c r="R2" t="n">
-        <v>3974.2541879999</v>
+        <v>6882.2586119555</v>
       </c>
       <c r="S2" t="n">
-        <v>82661062.26000001</v>
+        <v>56896663.18</v>
       </c>
       <c r="T2" t="n">
-        <v>420.2731153112</v>
+        <v>727.6323479887</v>
       </c>
       <c r="U2" t="n">
-        <v>-197870253.01</v>
+        <v>-55438832.85</v>
       </c>
       <c r="V2" t="n">
-        <v>-1006.030474159</v>
-      </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
+        <v>-708.988644708</v>
+      </c>
+      <c r="W2" t="n">
+        <v>35479.41</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.4537342783</v>
+      </c>
       <c r="Y2" t="n">
-        <v>40238811.18</v>
+        <v>55724312.26</v>
       </c>
       <c r="Z2" t="n">
-        <v>204.5859328282</v>
+        <v>712.6395451614</v>
       </c>
       <c r="AA2" t="n">
-        <v>114984153.21</v>
+        <v>-14378612.23</v>
       </c>
       <c r="AB2" t="n">
-        <v>584.6132019086</v>
+        <v>-183.8832506686</v>
       </c>
       <c r="AC2" t="n">
-        <v>-19668415.43</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>-151.5327701252</v>
-      </c>
+        <v>-7819424.65</v>
+      </c>
+      <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
